--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2852,28 +2852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2479.910930099666</v>
+        <v>2881.104651538682</v>
       </c>
       <c r="AB2" t="n">
-        <v>3393.123540511309</v>
+        <v>3942.05448960203</v>
       </c>
       <c r="AC2" t="n">
-        <v>3069.28859208358</v>
+        <v>3565.830341822488</v>
       </c>
       <c r="AD2" t="n">
-        <v>2479910.930099666</v>
+        <v>2881104.651538682</v>
       </c>
       <c r="AE2" t="n">
-        <v>3393123.540511309</v>
+        <v>3942054.48960203</v>
       </c>
       <c r="AF2" t="n">
         <v>1.95530921877639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.2662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>3069288.59208358</v>
+        <v>3565830.341822488</v>
       </c>
     </row>
     <row r="3">
@@ -2958,28 +2958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1512.352135895266</v>
+        <v>1805.905277749374</v>
       </c>
       <c r="AB3" t="n">
-        <v>2069.266912599258</v>
+        <v>2470.919271934657</v>
       </c>
       <c r="AC3" t="n">
-        <v>1871.778982695137</v>
+        <v>2235.098204578191</v>
       </c>
       <c r="AD3" t="n">
-        <v>1512352.135895266</v>
+        <v>1805905.277749374</v>
       </c>
       <c r="AE3" t="n">
-        <v>2069266.912599258</v>
+        <v>2470919.271934656</v>
       </c>
       <c r="AF3" t="n">
         <v>2.761353881818686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.84027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1871778.982695137</v>
+        <v>2235098.204578191</v>
       </c>
     </row>
     <row r="4">
@@ -3064,28 +3064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1301.075848170511</v>
+        <v>1555.475915973083</v>
       </c>
       <c r="AB4" t="n">
-        <v>1780.189374882267</v>
+        <v>2128.270770988634</v>
       </c>
       <c r="AC4" t="n">
-        <v>1610.290599454983</v>
+        <v>1925.151595652266</v>
       </c>
       <c r="AD4" t="n">
-        <v>1301075.848170511</v>
+        <v>1555475.915973083</v>
       </c>
       <c r="AE4" t="n">
-        <v>1780189.374882267</v>
+        <v>2128270.770988634</v>
       </c>
       <c r="AF4" t="n">
         <v>3.075825209812475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.0300925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1610290.599454983</v>
+        <v>1925151.595652265</v>
       </c>
     </row>
     <row r="5">
@@ -3170,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1191.248209802805</v>
+        <v>1435.825590916248</v>
       </c>
       <c r="AB5" t="n">
-        <v>1629.918354814128</v>
+        <v>1964.559917646076</v>
       </c>
       <c r="AC5" t="n">
-        <v>1474.361234635446</v>
+        <v>1777.065076383096</v>
       </c>
       <c r="AD5" t="n">
-        <v>1191248.209802805</v>
+        <v>1435825.590916248</v>
       </c>
       <c r="AE5" t="n">
-        <v>1629918.354814128</v>
+        <v>1964559.917646076</v>
       </c>
       <c r="AF5" t="n">
         <v>3.249265843061314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.31018518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>1474361.234635446</v>
+        <v>1777065.076383096</v>
       </c>
     </row>
     <row r="6">
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1117.674052884725</v>
+        <v>1352.564397954305</v>
       </c>
       <c r="AB6" t="n">
-        <v>1529.25094745609</v>
+        <v>1850.638280210955</v>
       </c>
       <c r="AC6" t="n">
-        <v>1383.301383348065</v>
+        <v>1674.01596013476</v>
       </c>
       <c r="AD6" t="n">
-        <v>1117674.052884725</v>
+        <v>1352564.397954305</v>
       </c>
       <c r="AE6" t="n">
-        <v>1529250.94745609</v>
+        <v>1850638.280210955</v>
       </c>
       <c r="AF6" t="n">
         <v>3.357344173553358e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.74768518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>1383301.383348064</v>
+        <v>1674015.96013476</v>
       </c>
     </row>
     <row r="7">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1065.6044573083</v>
+        <v>1300.460636959099</v>
       </c>
       <c r="AB7" t="n">
-        <v>1458.007029639993</v>
+        <v>1779.34761576161</v>
       </c>
       <c r="AC7" t="n">
-        <v>1318.856885056869</v>
+        <v>1609.529176643385</v>
       </c>
       <c r="AD7" t="n">
-        <v>1065604.4573083</v>
+        <v>1300460.636959099</v>
       </c>
       <c r="AE7" t="n">
-        <v>1458007.029639993</v>
+        <v>1779347.61576161</v>
       </c>
       <c r="AF7" t="n">
         <v>3.436267120035628e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.6712962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1318856.885056869</v>
+        <v>1609529.176643385</v>
       </c>
     </row>
     <row r="8">
@@ -3488,28 +3488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1039.868634929627</v>
+        <v>1264.903138921154</v>
       </c>
       <c r="AB8" t="n">
-        <v>1422.794142077141</v>
+        <v>1730.696278259993</v>
       </c>
       <c r="AC8" t="n">
-        <v>1287.004666061418</v>
+        <v>1565.521054510341</v>
       </c>
       <c r="AD8" t="n">
-        <v>1039868.634929627</v>
+        <v>1264903.138921154</v>
       </c>
       <c r="AE8" t="n">
-        <v>1422794.142077141</v>
+        <v>1730696.278259993</v>
       </c>
       <c r="AF8" t="n">
         <v>3.478983147770878e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.11574074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>1287004.666061418</v>
+        <v>1565521.054510341</v>
       </c>
     </row>
     <row r="9">
@@ -3594,28 +3594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1038.592192662032</v>
+        <v>1263.626696653558</v>
       </c>
       <c r="AB9" t="n">
-        <v>1421.047657453958</v>
+        <v>1728.94979363681</v>
       </c>
       <c r="AC9" t="n">
-        <v>1285.424863479465</v>
+        <v>1563.941251928388</v>
       </c>
       <c r="AD9" t="n">
-        <v>1038592.192662032</v>
+        <v>1263626.696653558</v>
       </c>
       <c r="AE9" t="n">
-        <v>1421047.657453958</v>
+        <v>1728949.79363681</v>
       </c>
       <c r="AF9" t="n">
         <v>3.481424063641464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.08101851851853</v>
       </c>
       <c r="AH9" t="n">
-        <v>1285424.863479465</v>
+        <v>1563941.251928388</v>
       </c>
     </row>
   </sheetData>
@@ -3891,19 +3891,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1908.293190943699</v>
+        <v>2266.336847822578</v>
       </c>
       <c r="AB2" t="n">
-        <v>2611.010931803066</v>
+        <v>3100.902058916259</v>
       </c>
       <c r="AC2" t="n">
-        <v>2361.81971304864</v>
+        <v>2804.956318556548</v>
       </c>
       <c r="AD2" t="n">
-        <v>1908293.190943699</v>
+        <v>2266336.847822579</v>
       </c>
       <c r="AE2" t="n">
-        <v>2611010.931803066</v>
+        <v>3100902.058916259</v>
       </c>
       <c r="AF2" t="n">
         <v>2.453140208705117e-06</v>
@@ -3912,7 +3912,7 @@
         <v>70</v>
       </c>
       <c r="AH2" t="n">
-        <v>2361819.71304864</v>
+        <v>2804956.318556548</v>
       </c>
     </row>
     <row r="3">
@@ -3997,28 +3997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1276.635268584915</v>
+        <v>1547.5881485316</v>
       </c>
       <c r="AB3" t="n">
-        <v>1746.748695650982</v>
+        <v>2117.478379591457</v>
       </c>
       <c r="AC3" t="n">
-        <v>1580.041451715244</v>
+        <v>1915.389214942818</v>
       </c>
       <c r="AD3" t="n">
-        <v>1276635.268584915</v>
+        <v>1547588.1485316</v>
       </c>
       <c r="AE3" t="n">
-        <v>1746748.695650982</v>
+        <v>2117478.379591457</v>
       </c>
       <c r="AF3" t="n">
         <v>3.240732794914926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.98611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1580041.451715244</v>
+        <v>1915389.214942819</v>
       </c>
     </row>
     <row r="4">
@@ -4103,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1115.966393181317</v>
+        <v>1357.844471288755</v>
       </c>
       <c r="AB4" t="n">
-        <v>1526.914452113258</v>
+        <v>1857.862709487544</v>
       </c>
       <c r="AC4" t="n">
-        <v>1381.187879841461</v>
+        <v>1680.550900020742</v>
       </c>
       <c r="AD4" t="n">
-        <v>1115966.393181317</v>
+        <v>1357844.471288755</v>
       </c>
       <c r="AE4" t="n">
-        <v>1526914.452113258</v>
+        <v>1857862.709487544</v>
       </c>
       <c r="AF4" t="n">
         <v>3.544166637944138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.46064814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1381187.879841461</v>
+        <v>1680550.900020742</v>
       </c>
     </row>
     <row r="5">
@@ -4209,28 +4209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1030.320610271027</v>
+        <v>1262.518139228355</v>
       </c>
       <c r="AB5" t="n">
-        <v>1409.730113510125</v>
+        <v>1727.433016461546</v>
       </c>
       <c r="AC5" t="n">
-        <v>1275.187450045359</v>
+        <v>1562.569233837921</v>
       </c>
       <c r="AD5" t="n">
-        <v>1030320.610271027</v>
+        <v>1262518.139228356</v>
       </c>
       <c r="AE5" t="n">
-        <v>1409730.113510125</v>
+        <v>1727433.016461546</v>
       </c>
       <c r="AF5" t="n">
         <v>3.704118561066627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.36574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>1275187.450045359</v>
+        <v>1562569.233837921</v>
       </c>
     </row>
     <row r="6">
@@ -4315,28 +4315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>979.945243562699</v>
+        <v>1202.496388788701</v>
       </c>
       <c r="AB6" t="n">
-        <v>1340.804314375461</v>
+        <v>1645.308609537265</v>
       </c>
       <c r="AC6" t="n">
-        <v>1212.83983244214</v>
+        <v>1488.282665048164</v>
       </c>
       <c r="AD6" t="n">
-        <v>979945.2435626991</v>
+        <v>1202496.388788701</v>
       </c>
       <c r="AE6" t="n">
-        <v>1340804.314375461</v>
+        <v>1645308.609537265</v>
       </c>
       <c r="AF6" t="n">
         <v>3.789436145292445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.32407407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>1212839.83244214</v>
+        <v>1488282.665048164</v>
       </c>
     </row>
     <row r="7">
@@ -4421,28 +4421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>977.9259672658532</v>
+        <v>1200.477112491855</v>
       </c>
       <c r="AB7" t="n">
-        <v>1338.041451461933</v>
+        <v>1642.545746623737</v>
       </c>
       <c r="AC7" t="n">
-        <v>1210.340653287377</v>
+        <v>1485.783485893401</v>
       </c>
       <c r="AD7" t="n">
-        <v>977925.9672658532</v>
+        <v>1200477.112491854</v>
       </c>
       <c r="AE7" t="n">
-        <v>1338041.451461933</v>
+        <v>1642545.746623737</v>
       </c>
       <c r="AF7" t="n">
         <v>3.794777767957018e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.25462962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1210340.653287377</v>
+        <v>1485783.485893401</v>
       </c>
     </row>
   </sheetData>
@@ -4718,28 +4718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.5677918497562</v>
+        <v>1241.09746798481</v>
       </c>
       <c r="AB2" t="n">
-        <v>1352.602065341795</v>
+        <v>1698.124309052808</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.511622614495</v>
+        <v>1536.057708329243</v>
       </c>
       <c r="AD2" t="n">
-        <v>988567.7918497561</v>
+        <v>1241097.46798481</v>
       </c>
       <c r="AE2" t="n">
-        <v>1352602.065341795</v>
+        <v>1698124.309052808</v>
       </c>
       <c r="AF2" t="n">
         <v>4.617178542648709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.9212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223511.622614495</v>
+        <v>1536057.708329244</v>
       </c>
     </row>
     <row r="3">
@@ -4824,28 +4824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>852.1623915755279</v>
+        <v>1076.592468102479</v>
       </c>
       <c r="AB3" t="n">
-        <v>1165.96617890505</v>
+        <v>1473.041310765412</v>
       </c>
       <c r="AC3" t="n">
-        <v>1054.688003234161</v>
+        <v>1332.456315492425</v>
       </c>
       <c r="AD3" t="n">
-        <v>852162.3915755278</v>
+        <v>1076592.468102479</v>
       </c>
       <c r="AE3" t="n">
-        <v>1165966.17890505</v>
+        <v>1473041.310765412</v>
       </c>
       <c r="AF3" t="n">
         <v>5.07322174489651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.24537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1054688.003234161</v>
+        <v>1332456.315492425</v>
       </c>
     </row>
   </sheetData>
@@ -5121,28 +5121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1268.464022015477</v>
+        <v>1552.771309805797</v>
       </c>
       <c r="AB2" t="n">
-        <v>1735.56843560472</v>
+        <v>2124.570209511749</v>
       </c>
       <c r="AC2" t="n">
-        <v>1569.928219996203</v>
+        <v>1921.804210568964</v>
       </c>
       <c r="AD2" t="n">
-        <v>1268464.022015477</v>
+        <v>1552771.309805796</v>
       </c>
       <c r="AE2" t="n">
-        <v>1735568.43560472</v>
+        <v>2124570.209511749</v>
       </c>
       <c r="AF2" t="n">
         <v>3.612148885083044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.46527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1569928.219996203</v>
+        <v>1921804.210568964</v>
       </c>
     </row>
     <row r="3">
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>947.4473595573388</v>
+        <v>1184.44328193175</v>
       </c>
       <c r="AB3" t="n">
-        <v>1296.33927577387</v>
+        <v>1620.60755228872</v>
       </c>
       <c r="AC3" t="n">
-        <v>1172.618474717612</v>
+        <v>1465.939042035269</v>
       </c>
       <c r="AD3" t="n">
-        <v>947447.3595573388</v>
+        <v>1184443.28193175</v>
       </c>
       <c r="AE3" t="n">
-        <v>1296339.27577387</v>
+        <v>1620607.55228872</v>
       </c>
       <c r="AF3" t="n">
         <v>4.352693212119185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.68518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1172618.474717612</v>
+        <v>1465939.042035269</v>
       </c>
     </row>
     <row r="4">
@@ -5333,28 +5333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>893.9136004362099</v>
+        <v>1111.94539358352</v>
       </c>
       <c r="AB4" t="n">
-        <v>1223.092024801573</v>
+        <v>1521.412743069569</v>
       </c>
       <c r="AC4" t="n">
-        <v>1106.361838574948</v>
+        <v>1376.211246187205</v>
       </c>
       <c r="AD4" t="n">
-        <v>893913.6004362099</v>
+        <v>1111945.39358352</v>
       </c>
       <c r="AE4" t="n">
-        <v>1223092.024801573</v>
+        <v>1521412.743069569</v>
       </c>
       <c r="AF4" t="n">
         <v>4.502093411785233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.11111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1106361.838574948</v>
+        <v>1376211.246187205</v>
       </c>
     </row>
   </sheetData>
@@ -5630,28 +5630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>835.7727001875594</v>
+        <v>1066.952294740504</v>
       </c>
       <c r="AB2" t="n">
-        <v>1143.541080085878</v>
+        <v>1459.851200277124</v>
       </c>
       <c r="AC2" t="n">
-        <v>1034.403124372468</v>
+        <v>1320.525050636703</v>
       </c>
       <c r="AD2" t="n">
-        <v>835772.7001875594</v>
+        <v>1066952.294740504</v>
       </c>
       <c r="AE2" t="n">
-        <v>1143541.080085878</v>
+        <v>1459851.200277124</v>
       </c>
       <c r="AF2" t="n">
         <v>5.590078675969244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.1087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1034403.124372468</v>
+        <v>1320525.050636703</v>
       </c>
     </row>
     <row r="3">
@@ -5736,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>837.26702092645</v>
+        <v>1068.446615479394</v>
       </c>
       <c r="AB3" t="n">
-        <v>1145.585675645607</v>
+        <v>1461.895795836852</v>
       </c>
       <c r="AC3" t="n">
-        <v>1036.252586601583</v>
+        <v>1322.374512865818</v>
       </c>
       <c r="AD3" t="n">
-        <v>837267.0209264499</v>
+        <v>1068446.615479394</v>
       </c>
       <c r="AE3" t="n">
-        <v>1145585.675645607</v>
+        <v>1461895.795836852</v>
       </c>
       <c r="AF3" t="n">
         <v>5.598855426839603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.03935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1036252.586601583</v>
+        <v>1322374.512865818</v>
       </c>
     </row>
   </sheetData>
@@ -6033,28 +6033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2042.951483822799</v>
+        <v>2402.046195034126</v>
       </c>
       <c r="AB2" t="n">
-        <v>2795.256348824858</v>
+        <v>3286.58557484496</v>
       </c>
       <c r="AC2" t="n">
-        <v>2528.481006059938</v>
+        <v>2972.918460333458</v>
       </c>
       <c r="AD2" t="n">
-        <v>2042951.483822799</v>
+        <v>2402046.195034126</v>
       </c>
       <c r="AE2" t="n">
-        <v>2795256.348824858</v>
+        <v>3286585.57484496</v>
       </c>
       <c r="AF2" t="n">
         <v>2.314531491440901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.4074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>2528481.006059938</v>
+        <v>2972918.460333458</v>
       </c>
     </row>
     <row r="3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1334.065517338762</v>
+        <v>1605.84719006835</v>
       </c>
       <c r="AB3" t="n">
-        <v>1825.327295639755</v>
+        <v>2197.190970429555</v>
       </c>
       <c r="AC3" t="n">
-        <v>1651.120620406846</v>
+        <v>1987.494147988652</v>
       </c>
       <c r="AD3" t="n">
-        <v>1334065.517338762</v>
+        <v>1605847.19006835</v>
       </c>
       <c r="AE3" t="n">
-        <v>1825327.295639755</v>
+        <v>2197190.970429555</v>
       </c>
       <c r="AF3" t="n">
         <v>3.108002406242036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.92361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1651120.620406846</v>
+        <v>1987494.147988652</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1164.360546385387</v>
+        <v>1406.982278629571</v>
       </c>
       <c r="AB4" t="n">
-        <v>1593.129467526424</v>
+        <v>1925.095225298313</v>
       </c>
       <c r="AC4" t="n">
-        <v>1441.083427116952</v>
+        <v>1741.366838883959</v>
       </c>
       <c r="AD4" t="n">
-        <v>1164360.546385387</v>
+        <v>1406982.278629571</v>
       </c>
       <c r="AE4" t="n">
-        <v>1593129.467526424</v>
+        <v>1925095.225298313</v>
       </c>
       <c r="AF4" t="n">
         <v>3.414531224970869e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.07407407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>1441083.427116952</v>
+        <v>1741366.838883959</v>
       </c>
     </row>
     <row r="5">
@@ -6351,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1064.842785181505</v>
+        <v>1297.822908534567</v>
       </c>
       <c r="AB5" t="n">
-        <v>1456.964876233509</v>
+        <v>1775.7385593628</v>
       </c>
       <c r="AC5" t="n">
-        <v>1317.914193308829</v>
+        <v>1606.264563521935</v>
       </c>
       <c r="AD5" t="n">
-        <v>1064842.785181505</v>
+        <v>1297822.908534567</v>
       </c>
       <c r="AE5" t="n">
-        <v>1456964.876233509</v>
+        <v>1775738.5593628</v>
       </c>
       <c r="AF5" t="n">
         <v>3.579596342283513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.81712962962964</v>
       </c>
       <c r="AH5" t="n">
-        <v>1317914.193308829</v>
+        <v>1606264.563521935</v>
       </c>
     </row>
     <row r="6">
@@ -6457,28 +6457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1005.554982866148</v>
+        <v>1228.860342939164</v>
       </c>
       <c r="AB6" t="n">
-        <v>1375.844689512399</v>
+        <v>1681.380934701498</v>
       </c>
       <c r="AC6" t="n">
-        <v>1244.536003355484</v>
+        <v>1520.91229812655</v>
       </c>
       <c r="AD6" t="n">
-        <v>1005554.982866148</v>
+        <v>1228860.342939164</v>
       </c>
       <c r="AE6" t="n">
-        <v>1375844.689512399</v>
+        <v>1681380.934701498</v>
       </c>
       <c r="AF6" t="n">
         <v>3.682544849660084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.50925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1244536.003355484</v>
+        <v>1520912.298126549</v>
       </c>
     </row>
     <row r="7">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>992.1426465542212</v>
+        <v>1215.346521400752</v>
       </c>
       <c r="AB7" t="n">
-        <v>1357.493339259903</v>
+        <v>1662.890727884913</v>
       </c>
       <c r="AC7" t="n">
-        <v>1227.936080214805</v>
+        <v>1504.186770697371</v>
       </c>
       <c r="AD7" t="n">
-        <v>992142.6465542212</v>
+        <v>1215346.521400752</v>
       </c>
       <c r="AE7" t="n">
-        <v>1357493.339259903</v>
+        <v>1662890.727884913</v>
       </c>
       <c r="AF7" t="n">
         <v>3.708318174994865e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.19675925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1227936.080214805</v>
+        <v>1504186.770697371</v>
       </c>
     </row>
   </sheetData>
@@ -6860,28 +6860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>823.2496881154971</v>
+        <v>1062.041514911572</v>
       </c>
       <c r="AB2" t="n">
-        <v>1126.406542492582</v>
+        <v>1453.132054666864</v>
       </c>
       <c r="AC2" t="n">
-        <v>1018.903882998601</v>
+        <v>1314.447170853106</v>
       </c>
       <c r="AD2" t="n">
-        <v>823249.6881154971</v>
+        <v>1062041.514911572</v>
       </c>
       <c r="AE2" t="n">
-        <v>1126406.542492582</v>
+        <v>1453132.054666864</v>
       </c>
       <c r="AF2" t="n">
         <v>5.948386251546188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.49768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>1018903.882998601</v>
+        <v>1314447.170853106</v>
       </c>
     </row>
   </sheetData>
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1570.459422279074</v>
+        <v>1886.708251073598</v>
       </c>
       <c r="AB2" t="n">
-        <v>2148.771865342137</v>
+        <v>2581.477464812454</v>
       </c>
       <c r="AC2" t="n">
-        <v>1943.696094334137</v>
+        <v>2335.10487869713</v>
       </c>
       <c r="AD2" t="n">
-        <v>1570459.422279074</v>
+        <v>1886708.251073598</v>
       </c>
       <c r="AE2" t="n">
-        <v>2148771.865342136</v>
+        <v>2581477.464812454</v>
       </c>
       <c r="AF2" t="n">
         <v>2.943991455602895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.42592592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1943696.094334137</v>
+        <v>2335104.87869713</v>
       </c>
     </row>
     <row r="3">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1116.003044539246</v>
+        <v>1365.166932267399</v>
       </c>
       <c r="AB3" t="n">
-        <v>1526.96460011812</v>
+        <v>1867.881623642705</v>
       </c>
       <c r="AC3" t="n">
-        <v>1381.233241791122</v>
+        <v>1689.613623070569</v>
       </c>
       <c r="AD3" t="n">
-        <v>1116003.044539246</v>
+        <v>1365166.932267399</v>
       </c>
       <c r="AE3" t="n">
-        <v>1526964.60011812</v>
+        <v>1867881.623642705</v>
       </c>
       <c r="AF3" t="n">
         <v>3.716492748386732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.24305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1381233.241791122</v>
+        <v>1689613.623070569</v>
       </c>
     </row>
     <row r="4">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>976.8166479342673</v>
+        <v>1206.90513332172</v>
       </c>
       <c r="AB4" t="n">
-        <v>1336.523631812742</v>
+        <v>1651.340848307423</v>
       </c>
       <c r="AC4" t="n">
-        <v>1208.967692215232</v>
+        <v>1493.739195416399</v>
       </c>
       <c r="AD4" t="n">
-        <v>976816.6479342673</v>
+        <v>1206905.13332172</v>
       </c>
       <c r="AE4" t="n">
-        <v>1336523.631812742</v>
+        <v>1651340.848307423</v>
       </c>
       <c r="AF4" t="n">
         <v>4.006422744863874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.6087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1208967.692215232</v>
+        <v>1493739.195416399</v>
       </c>
     </row>
     <row r="5">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>931.6881437614513</v>
+        <v>1152.222350784092</v>
       </c>
       <c r="AB5" t="n">
-        <v>1274.776821474404</v>
+        <v>1576.521452805336</v>
       </c>
       <c r="AC5" t="n">
-        <v>1153.113910793392</v>
+        <v>1426.06045801135</v>
       </c>
       <c r="AD5" t="n">
-        <v>931688.1437614514</v>
+        <v>1152222.350784092</v>
       </c>
       <c r="AE5" t="n">
-        <v>1274776.821474404</v>
+        <v>1576521.452805336</v>
       </c>
       <c r="AF5" t="n">
         <v>4.100807301313027e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.53240740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>1153113.910793392</v>
+        <v>1426060.45801135</v>
       </c>
     </row>
     <row r="6">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>934.3897381506423</v>
+        <v>1164.444058119314</v>
       </c>
       <c r="AB6" t="n">
-        <v>1278.473262103628</v>
+        <v>1593.243731965061</v>
       </c>
       <c r="AC6" t="n">
-        <v>1156.45756831695</v>
+        <v>1441.186786317937</v>
       </c>
       <c r="AD6" t="n">
-        <v>934389.7381506423</v>
+        <v>1164444.058119314</v>
       </c>
       <c r="AE6" t="n">
-        <v>1278473.262103628</v>
+        <v>1593243.731965061</v>
       </c>
       <c r="AF6" t="n">
         <v>4.099193890091674e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.55555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>1156457.56831695</v>
+        <v>1441186.786317937</v>
       </c>
     </row>
   </sheetData>
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1788.854832452392</v>
+        <v>2126.574666784878</v>
       </c>
       <c r="AB2" t="n">
-        <v>2447.590100466767</v>
+        <v>2909.673276948037</v>
       </c>
       <c r="AC2" t="n">
-        <v>2213.995536492499</v>
+        <v>2631.978143148208</v>
       </c>
       <c r="AD2" t="n">
-        <v>1788854.832452392</v>
+        <v>2126574.666784878</v>
       </c>
       <c r="AE2" t="n">
-        <v>2447590.100466767</v>
+        <v>2909673.276948037</v>
       </c>
       <c r="AF2" t="n">
         <v>2.604647110256263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.67361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2213995.5364925</v>
+        <v>2631978.143148208</v>
       </c>
     </row>
     <row r="3">
@@ -7984,28 +7984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1228.759513992459</v>
+        <v>1479.620545453933</v>
       </c>
       <c r="AB3" t="n">
-        <v>1681.242976088357</v>
+        <v>2024.48210654157</v>
       </c>
       <c r="AC3" t="n">
-        <v>1520.78750608982</v>
+        <v>1831.268375671724</v>
       </c>
       <c r="AD3" t="n">
-        <v>1228759.513992459</v>
+        <v>1479620.545453933</v>
       </c>
       <c r="AE3" t="n">
-        <v>1681242.976088357</v>
+        <v>2024482.10654157</v>
       </c>
       <c r="AF3" t="n">
         <v>3.386665639822182e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.04861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1520787.506089821</v>
+        <v>1831268.375671724</v>
       </c>
     </row>
     <row r="4">
@@ -8090,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1065.754277483289</v>
+        <v>1306.963207481476</v>
       </c>
       <c r="AB4" t="n">
-        <v>1458.212020213012</v>
+        <v>1788.244719623491</v>
       </c>
       <c r="AC4" t="n">
-        <v>1319.042311617306</v>
+        <v>1617.577153399852</v>
       </c>
       <c r="AD4" t="n">
-        <v>1065754.277483289</v>
+        <v>1306963.207481476</v>
       </c>
       <c r="AE4" t="n">
-        <v>1458212.020213012</v>
+        <v>1788244.719623491</v>
       </c>
       <c r="AF4" t="n">
         <v>3.688964915613486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.77777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1319042.311617306</v>
+        <v>1617577.153399852</v>
       </c>
     </row>
     <row r="5">
@@ -8196,28 +8196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>981.0173145313415</v>
+        <v>1212.575154096099</v>
       </c>
       <c r="AB5" t="n">
-        <v>1342.27116917119</v>
+        <v>1659.098820874591</v>
       </c>
       <c r="AC5" t="n">
-        <v>1214.166692674909</v>
+        <v>1500.756757970139</v>
       </c>
       <c r="AD5" t="n">
-        <v>981017.3145313415</v>
+        <v>1212575.154096099</v>
       </c>
       <c r="AE5" t="n">
-        <v>1342271.16917119</v>
+        <v>1659098.82087459</v>
       </c>
       <c r="AF5" t="n">
         <v>3.847957582578787e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.81018518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>1214166.692674909</v>
+        <v>1500756.757970139</v>
       </c>
     </row>
     <row r="6">
@@ -8302,28 +8302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>961.9862845838406</v>
+        <v>1183.859879326244</v>
       </c>
       <c r="AB6" t="n">
-        <v>1316.232074407234</v>
+        <v>1619.809315105961</v>
       </c>
       <c r="AC6" t="n">
-        <v>1190.612732569125</v>
+        <v>1465.2169874889</v>
       </c>
       <c r="AD6" t="n">
-        <v>961986.2845838406</v>
+        <v>1183859.879326244</v>
       </c>
       <c r="AE6" t="n">
-        <v>1316232.074407234</v>
+        <v>1619809.315105961</v>
       </c>
       <c r="AF6" t="n">
         <v>3.888162624799898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.33564814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>1190612.732569125</v>
+        <v>1465216.9874889</v>
       </c>
     </row>
     <row r="7">
@@ -8408,28 +8408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>965.0994259059329</v>
+        <v>1186.973020648337</v>
       </c>
       <c r="AB7" t="n">
-        <v>1320.491611706222</v>
+        <v>1624.06885240495</v>
       </c>
       <c r="AC7" t="n">
-        <v>1194.465745606597</v>
+        <v>1469.070000526371</v>
       </c>
       <c r="AD7" t="n">
-        <v>965099.4259059329</v>
+        <v>1186973.020648337</v>
       </c>
       <c r="AE7" t="n">
-        <v>1320491.611706222</v>
+        <v>1624068.85240495</v>
       </c>
       <c r="AF7" t="n">
         <v>3.886791998360541e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.34722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1194465.745606597</v>
+        <v>1469070.000526371</v>
       </c>
     </row>
   </sheetData>
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2321.088665365526</v>
+        <v>2711.432248372328</v>
       </c>
       <c r="AB2" t="n">
-        <v>3175.815911158237</v>
+        <v>3709.901222171676</v>
       </c>
       <c r="AC2" t="n">
-        <v>2872.720497882801</v>
+        <v>3355.833456406539</v>
       </c>
       <c r="AD2" t="n">
-        <v>2321088.665365526</v>
+        <v>2711432.248372328</v>
       </c>
       <c r="AE2" t="n">
-        <v>3175815.911158237</v>
+        <v>3709901.222171676</v>
       </c>
       <c r="AF2" t="n">
         <v>2.067760315071578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.48842592592594</v>
       </c>
       <c r="AH2" t="n">
-        <v>2872720.497882801</v>
+        <v>3355833.456406539</v>
       </c>
     </row>
     <row r="3">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1451.415334002647</v>
+        <v>1734.46921749145</v>
       </c>
       <c r="AB3" t="n">
-        <v>1985.890491907811</v>
+        <v>2373.17730275321</v>
       </c>
       <c r="AC3" t="n">
-        <v>1796.35989057494</v>
+        <v>2146.684591753707</v>
       </c>
       <c r="AD3" t="n">
-        <v>1451415.334002647</v>
+        <v>1734469.21749145</v>
       </c>
       <c r="AE3" t="n">
-        <v>1985890.491907811</v>
+        <v>2373177.302753211</v>
       </c>
       <c r="AF3" t="n">
         <v>2.870858707394169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.81018518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1796359.89057494</v>
+        <v>2146684.591753707</v>
       </c>
     </row>
     <row r="4">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1251.434250385318</v>
+        <v>1505.132309136104</v>
       </c>
       <c r="AB4" t="n">
-        <v>1712.267550759837</v>
+        <v>2059.388427111095</v>
       </c>
       <c r="AC4" t="n">
-        <v>1548.851138897919</v>
+        <v>1862.843285997423</v>
       </c>
       <c r="AD4" t="n">
-        <v>1251434.250385318</v>
+        <v>1505132.309136104</v>
       </c>
       <c r="AE4" t="n">
-        <v>1712267.550759837</v>
+        <v>2059388.427111095</v>
       </c>
       <c r="AF4" t="n">
         <v>3.183043998669371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.33564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1548851.138897919</v>
+        <v>1862843.285997423</v>
       </c>
     </row>
     <row r="5">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1146.07765185138</v>
+        <v>1390.080195433098</v>
       </c>
       <c r="AB5" t="n">
-        <v>1568.114004640615</v>
+        <v>1901.969049401615</v>
       </c>
       <c r="AC5" t="n">
-        <v>1418.455404899543</v>
+        <v>1720.447792757051</v>
       </c>
       <c r="AD5" t="n">
-        <v>1146077.65185138</v>
+        <v>1390080.195433098</v>
       </c>
       <c r="AE5" t="n">
-        <v>1568114.004640615</v>
+        <v>1901969.049401615</v>
       </c>
       <c r="AF5" t="n">
         <v>3.352219353852651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.80092592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1418455.404899543</v>
+        <v>1720447.792757051</v>
       </c>
     </row>
     <row r="6">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1082.511624462725</v>
+        <v>1316.684013259968</v>
       </c>
       <c r="AB6" t="n">
-        <v>1481.140161632249</v>
+        <v>1801.545154941308</v>
       </c>
       <c r="AC6" t="n">
-        <v>1339.78222339934</v>
+        <v>1629.608213838214</v>
       </c>
       <c r="AD6" t="n">
-        <v>1082511.624462725</v>
+        <v>1316684.013259968</v>
       </c>
       <c r="AE6" t="n">
-        <v>1481140.161632249</v>
+        <v>1801545.154941308</v>
       </c>
       <c r="AF6" t="n">
         <v>3.464910629727602e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.23842592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1339782.223399339</v>
+        <v>1629608.213838214</v>
       </c>
     </row>
     <row r="7">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1035.138078399387</v>
+        <v>1259.581797638639</v>
       </c>
       <c r="AB7" t="n">
-        <v>1416.32158593504</v>
+        <v>1723.415384356246</v>
       </c>
       <c r="AC7" t="n">
-        <v>1281.14984159323</v>
+        <v>1558.935038901969</v>
       </c>
       <c r="AD7" t="n">
-        <v>1035138.078399386</v>
+        <v>1259581.797638639</v>
       </c>
       <c r="AE7" t="n">
-        <v>1416321.58593504</v>
+        <v>1723415.384356246</v>
       </c>
       <c r="AF7" t="n">
         <v>3.531500929108254e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.37037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1281149.84159323</v>
+        <v>1558935.038901969</v>
       </c>
     </row>
     <row r="8">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1022.957860220046</v>
+        <v>1247.401579459298</v>
       </c>
       <c r="AB8" t="n">
-        <v>1399.656074068765</v>
+        <v>1706.749872489971</v>
       </c>
       <c r="AC8" t="n">
-        <v>1266.074862789279</v>
+        <v>1543.860060098018</v>
       </c>
       <c r="AD8" t="n">
-        <v>1022957.860220046</v>
+        <v>1247401.579459298</v>
       </c>
       <c r="AE8" t="n">
-        <v>1399656.074068765</v>
+        <v>1706749.872489971</v>
       </c>
       <c r="AF8" t="n">
         <v>3.550328955544364e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.12731481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>1266074.862789279</v>
+        <v>1543860.060098018</v>
       </c>
     </row>
     <row r="9">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1025.48807626133</v>
+        <v>1249.931795500582</v>
       </c>
       <c r="AB9" t="n">
-        <v>1403.118027281704</v>
+        <v>1710.21182570291</v>
       </c>
       <c r="AC9" t="n">
-        <v>1269.206412046457</v>
+        <v>1546.991609355196</v>
       </c>
       <c r="AD9" t="n">
-        <v>1025488.07626133</v>
+        <v>1249931.795500583</v>
       </c>
       <c r="AE9" t="n">
-        <v>1403118.027281704</v>
+        <v>1710211.82570291</v>
       </c>
       <c r="AF9" t="n">
         <v>3.549775190060949e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.13888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1269206.412046457</v>
+        <v>1546991.609355196</v>
       </c>
     </row>
   </sheetData>
@@ -9744,28 +9744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1365.294172980129</v>
+        <v>1650.784947429826</v>
       </c>
       <c r="AB2" t="n">
-        <v>1868.055719999326</v>
+        <v>2258.676792565462</v>
       </c>
       <c r="AC2" t="n">
-        <v>1689.77110391526</v>
+        <v>2043.111849555802</v>
       </c>
       <c r="AD2" t="n">
-        <v>1365294.172980129</v>
+        <v>1650784.947429826</v>
       </c>
       <c r="AE2" t="n">
-        <v>1868055.719999326</v>
+        <v>2258676.792565462</v>
       </c>
       <c r="AF2" t="n">
         <v>3.364596051668908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1689771.103915259</v>
+        <v>2043111.849555802</v>
       </c>
     </row>
     <row r="3">
@@ -9850,28 +9850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1003.0208590284</v>
+        <v>1240.878758113285</v>
       </c>
       <c r="AB3" t="n">
-        <v>1372.377389479938</v>
+        <v>1697.825060557788</v>
       </c>
       <c r="AC3" t="n">
-        <v>1241.399617571735</v>
+        <v>1535.787019690591</v>
       </c>
       <c r="AD3" t="n">
-        <v>1003020.8590284</v>
+        <v>1240878.758113285</v>
       </c>
       <c r="AE3" t="n">
-        <v>1372377.389479938</v>
+        <v>1697825.060557788</v>
       </c>
       <c r="AF3" t="n">
         <v>4.119494391243148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.49537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1241399.617571735</v>
+        <v>1535787.019690591</v>
       </c>
     </row>
     <row r="4">
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.5128173095379</v>
+        <v>1129.918294212922</v>
       </c>
       <c r="AB4" t="n">
-        <v>1233.489608581448</v>
+        <v>1546.004058619132</v>
       </c>
       <c r="AC4" t="n">
-        <v>1115.767091551972</v>
+        <v>1398.455601094845</v>
       </c>
       <c r="AD4" t="n">
-        <v>901512.8173095379</v>
+        <v>1129918.294212922</v>
       </c>
       <c r="AE4" t="n">
-        <v>1233489.608581448</v>
+        <v>1546004.058619132</v>
       </c>
       <c r="AF4" t="n">
         <v>4.350589241880987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.91435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1115767.091551972</v>
+        <v>1398455.601094845</v>
       </c>
     </row>
     <row r="5">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>901.9179583118182</v>
+        <v>1130.323435215202</v>
       </c>
       <c r="AB5" t="n">
-        <v>1234.043940374327</v>
+        <v>1546.558390412011</v>
       </c>
       <c r="AC5" t="n">
-        <v>1116.268518696549</v>
+        <v>1398.957028239422</v>
       </c>
       <c r="AD5" t="n">
-        <v>901917.9583118182</v>
+        <v>1130323.435215202</v>
       </c>
       <c r="AE5" t="n">
-        <v>1234043.940374327</v>
+        <v>1546558.390412011</v>
       </c>
       <c r="AF5" t="n">
         <v>4.35507652053415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.86805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1116268.518696549</v>
+        <v>1398957.028239422</v>
       </c>
     </row>
   </sheetData>
@@ -10359,28 +10359,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1079.98870700129</v>
+        <v>1343.146510485839</v>
       </c>
       <c r="AB2" t="n">
-        <v>1477.68819465825</v>
+        <v>1837.752311088728</v>
       </c>
       <c r="AC2" t="n">
-        <v>1336.659707308473</v>
+        <v>1662.359809819988</v>
       </c>
       <c r="AD2" t="n">
-        <v>1079988.70700129</v>
+        <v>1343146.510485839</v>
       </c>
       <c r="AE2" t="n">
-        <v>1477688.19465825</v>
+        <v>1837752.311088728</v>
       </c>
       <c r="AF2" t="n">
         <v>4.229648764996923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.7037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1336659.707308473</v>
+        <v>1662359.809819988</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10465,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>860.4964658997932</v>
+        <v>1086.084701328536</v>
       </c>
       <c r="AB3" t="n">
-        <v>1177.36922706892</v>
+        <v>1486.029003033078</v>
       </c>
       <c r="AC3" t="n">
-        <v>1065.00276048555</v>
+        <v>1344.204480638405</v>
       </c>
       <c r="AD3" t="n">
-        <v>860496.4658997932</v>
+        <v>1086084.701328536</v>
       </c>
       <c r="AE3" t="n">
-        <v>1177369.22706892</v>
+        <v>1486029.003033078</v>
       </c>
       <c r="AF3" t="n">
         <v>4.853508711358228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.79398148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>1065002.76048555</v>
+        <v>1344204.480638405</v>
       </c>
     </row>
     <row r="4">
@@ -10571,28 +10571,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>863.3429358699382</v>
+        <v>1088.931171298681</v>
       </c>
       <c r="AB4" t="n">
-        <v>1181.263892859464</v>
+        <v>1489.923668823622</v>
       </c>
       <c r="AC4" t="n">
-        <v>1068.525724839243</v>
+        <v>1347.727444992098</v>
       </c>
       <c r="AD4" t="n">
-        <v>863342.9358699382</v>
+        <v>1088931.171298681</v>
       </c>
       <c r="AE4" t="n">
-        <v>1181263.892859465</v>
+        <v>1489923.668823622</v>
       </c>
       <c r="AF4" t="n">
         <v>4.855078664038597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.78240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1068525.724839243</v>
+        <v>1347727.444992098</v>
       </c>
     </row>
   </sheetData>
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>904.6243108391424</v>
+        <v>1137.206176472746</v>
       </c>
       <c r="AB2" t="n">
-        <v>1237.746891298059</v>
+        <v>1555.975660645696</v>
       </c>
       <c r="AC2" t="n">
-        <v>1119.618065181244</v>
+        <v>1407.475527419226</v>
       </c>
       <c r="AD2" t="n">
-        <v>904624.3108391424</v>
+        <v>1137206.176472746</v>
       </c>
       <c r="AE2" t="n">
-        <v>1237746.891298059</v>
+        <v>1555975.660645696</v>
       </c>
       <c r="AF2" t="n">
         <v>5.093885568609578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.08101851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>1119618.065181244</v>
+        <v>1407475.527419226</v>
       </c>
     </row>
     <row r="3">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>835.278921440724</v>
+        <v>1067.85977604447</v>
       </c>
       <c r="AB3" t="n">
-        <v>1142.865470220477</v>
+        <v>1461.092856232461</v>
       </c>
       <c r="AC3" t="n">
-        <v>1033.791993764396</v>
+        <v>1321.648204690337</v>
       </c>
       <c r="AD3" t="n">
-        <v>835278.9214407241</v>
+        <v>1067859.77604447</v>
       </c>
       <c r="AE3" t="n">
-        <v>1142865.470220477</v>
+        <v>1461092.856232461</v>
       </c>
       <c r="AF3" t="n">
         <v>5.319345047547302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.95138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1033791.993764396</v>
+        <v>1321648.204690337</v>
       </c>
     </row>
   </sheetData>
@@ -19084,28 +19084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>831.0677450571599</v>
+        <v>1077.144577039776</v>
       </c>
       <c r="AB2" t="n">
-        <v>1137.103552908495</v>
+        <v>1473.796730570749</v>
       </c>
       <c r="AC2" t="n">
-        <v>1028.579985753767</v>
+        <v>1333.139639091779</v>
       </c>
       <c r="AD2" t="n">
-        <v>831067.7450571599</v>
+        <v>1077144.577039776</v>
       </c>
       <c r="AE2" t="n">
-        <v>1137103.552908495</v>
+        <v>1473796.730570749</v>
       </c>
       <c r="AF2" t="n">
         <v>6.338086691128692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1028579.985753768</v>
+        <v>1333139.639091779</v>
       </c>
     </row>
   </sheetData>
@@ -19381,28 +19381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1678.795762833977</v>
+        <v>2005.8222285318</v>
       </c>
       <c r="AB2" t="n">
-        <v>2297.002425951382</v>
+        <v>2744.454463708576</v>
       </c>
       <c r="AC2" t="n">
-        <v>2077.779738281734</v>
+        <v>2482.527581558261</v>
       </c>
       <c r="AD2" t="n">
-        <v>1678795.762833977</v>
+        <v>2005822.2285318</v>
       </c>
       <c r="AE2" t="n">
-        <v>2297002.425951382</v>
+        <v>2744454.463708576</v>
       </c>
       <c r="AF2" t="n">
         <v>2.764588666937037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.55555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2077779.738281735</v>
+        <v>2482527.581558261</v>
       </c>
     </row>
     <row r="3">
@@ -19487,28 +19487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1172.858366563124</v>
+        <v>1422.888196334285</v>
       </c>
       <c r="AB3" t="n">
-        <v>1604.756559990971</v>
+        <v>1946.858403621467</v>
       </c>
       <c r="AC3" t="n">
-        <v>1451.60084619541</v>
+        <v>1761.052970012765</v>
       </c>
       <c r="AD3" t="n">
-        <v>1172858.366563124</v>
+        <v>1422888.196334285</v>
       </c>
       <c r="AE3" t="n">
-        <v>1604756.559990971</v>
+        <v>1946858.403621468</v>
       </c>
       <c r="AF3" t="n">
         <v>3.541899238598065e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.16898148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>1451600.84619541</v>
+        <v>1761052.970012765</v>
       </c>
     </row>
     <row r="4">
@@ -19593,28 +19593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1028.614980596861</v>
+        <v>1259.403939983589</v>
       </c>
       <c r="AB4" t="n">
-        <v>1407.39639574286</v>
+        <v>1723.172031666081</v>
       </c>
       <c r="AC4" t="n">
-        <v>1273.076459026408</v>
+        <v>1558.714911451006</v>
       </c>
       <c r="AD4" t="n">
-        <v>1028614.980596861</v>
+        <v>1259403.939983589</v>
       </c>
       <c r="AE4" t="n">
-        <v>1407396.39574286</v>
+        <v>1723172.031666081</v>
       </c>
       <c r="AF4" t="n">
         <v>3.836600788933693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.24537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1273076.459026408</v>
+        <v>1558714.911451006</v>
       </c>
     </row>
     <row r="5">
@@ -19699,28 +19699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>951.5642144900744</v>
+        <v>1182.386328265726</v>
       </c>
       <c r="AB5" t="n">
-        <v>1301.97213831566</v>
+        <v>1617.793137536475</v>
       </c>
       <c r="AC5" t="n">
-        <v>1177.713744764186</v>
+        <v>1463.393231076922</v>
       </c>
       <c r="AD5" t="n">
-        <v>951564.2144900744</v>
+        <v>1182386.328265726</v>
       </c>
       <c r="AE5" t="n">
-        <v>1301972.13831566</v>
+        <v>1617793.137536475</v>
       </c>
       <c r="AF5" t="n">
         <v>3.979253877326762e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.54398148148149</v>
       </c>
       <c r="AH5" t="n">
-        <v>1177713.744764186</v>
+        <v>1463393.231076922</v>
       </c>
     </row>
     <row r="6">
@@ -19805,28 +19805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>947.8453757763149</v>
+        <v>1169.013899970825</v>
       </c>
       <c r="AB6" t="n">
-        <v>1296.883859123909</v>
+        <v>1599.496391193492</v>
       </c>
       <c r="AC6" t="n">
-        <v>1173.111083797051</v>
+        <v>1446.842700525269</v>
       </c>
       <c r="AD6" t="n">
-        <v>947845.3757763149</v>
+        <v>1169013.899970825</v>
       </c>
       <c r="AE6" t="n">
-        <v>1296883.859123909</v>
+        <v>1599496.391193492</v>
       </c>
       <c r="AF6" t="n">
         <v>3.987709713521302e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.45138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1173111.083797051</v>
+        <v>1446842.700525269</v>
       </c>
     </row>
   </sheetData>
@@ -20102,28 +20102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2172.730733057502</v>
+        <v>2552.3450597266</v>
       </c>
       <c r="AB2" t="n">
-        <v>2972.826043084172</v>
+        <v>3492.231112235152</v>
       </c>
       <c r="AC2" t="n">
-        <v>2689.103697919775</v>
+        <v>3158.937476260447</v>
       </c>
       <c r="AD2" t="n">
-        <v>2172730.733057502</v>
+        <v>2552345.0597266</v>
       </c>
       <c r="AE2" t="n">
-        <v>2972826.043084172</v>
+        <v>3492231.112235152</v>
       </c>
       <c r="AF2" t="n">
         <v>2.187211178940973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.87268518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>2689103.697919775</v>
+        <v>3158937.476260447</v>
       </c>
     </row>
     <row r="3">
@@ -20208,28 +20208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1390.697586847696</v>
+        <v>1672.948625587192</v>
       </c>
       <c r="AB3" t="n">
-        <v>1902.813791572455</v>
+        <v>2289.002114812841</v>
       </c>
       <c r="AC3" t="n">
-        <v>1721.211913920709</v>
+        <v>2070.542965609749</v>
       </c>
       <c r="AD3" t="n">
-        <v>1390697.586847696</v>
+        <v>1672948.625587192</v>
       </c>
       <c r="AE3" t="n">
-        <v>1902813.791572455</v>
+        <v>2289002.114812841</v>
       </c>
       <c r="AF3" t="n">
         <v>2.988207587531014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.80324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1721211.913920709</v>
+        <v>2070542.965609749</v>
       </c>
     </row>
     <row r="4">
@@ -20314,28 +20314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1202.763312113929</v>
+        <v>1455.839529893326</v>
       </c>
       <c r="AB4" t="n">
-        <v>1645.673825806668</v>
+        <v>1991.943871907185</v>
       </c>
       <c r="AC4" t="n">
-        <v>1488.6130255894</v>
+        <v>1801.835544483146</v>
       </c>
       <c r="AD4" t="n">
-        <v>1202763.312113929</v>
+        <v>1455839.529893326</v>
       </c>
       <c r="AE4" t="n">
-        <v>1645673.825806668</v>
+        <v>1991943.871907185</v>
       </c>
       <c r="AF4" t="n">
         <v>3.2959566051398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1488613.0255894</v>
+        <v>1801835.544483146</v>
       </c>
     </row>
     <row r="5">
@@ -20420,28 +20420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1111.313266039041</v>
+        <v>1344.883671843594</v>
       </c>
       <c r="AB5" t="n">
-        <v>1520.547838275714</v>
+        <v>1840.129171896559</v>
       </c>
       <c r="AC5" t="n">
-        <v>1375.428886692973</v>
+        <v>1664.509826368264</v>
       </c>
       <c r="AD5" t="n">
-        <v>1111313.266039041</v>
+        <v>1344883.671843594</v>
       </c>
       <c r="AE5" t="n">
-        <v>1520547.838275714</v>
+        <v>1840129.171896559</v>
       </c>
       <c r="AF5" t="n">
         <v>3.461362858741947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.31481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>1375428.886692974</v>
+        <v>1664509.826368264</v>
       </c>
     </row>
     <row r="6">
@@ -20526,28 +20526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1039.336038196444</v>
+        <v>1272.939598389921</v>
       </c>
       <c r="AB6" t="n">
-        <v>1422.06541973029</v>
+        <v>1741.692116648729</v>
       </c>
       <c r="AC6" t="n">
-        <v>1286.345491952583</v>
+        <v>1575.467465516012</v>
       </c>
       <c r="AD6" t="n">
-        <v>1039336.038196445</v>
+        <v>1272939.598389921</v>
       </c>
       <c r="AE6" t="n">
-        <v>1422065.41973029</v>
+        <v>1741692.116648729</v>
       </c>
       <c r="AF6" t="n">
         <v>3.56974711046072e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.87962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1286345.491952582</v>
+        <v>1575467.465516012</v>
       </c>
     </row>
     <row r="7">
@@ -20632,28 +20632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1007.838639204453</v>
+        <v>1231.672716216046</v>
       </c>
       <c r="AB7" t="n">
-        <v>1378.969288862275</v>
+        <v>1685.228947892081</v>
       </c>
       <c r="AC7" t="n">
-        <v>1247.362395328811</v>
+        <v>1524.393062338944</v>
       </c>
       <c r="AD7" t="n">
-        <v>1007838.639204453</v>
+        <v>1231672.716216046</v>
       </c>
       <c r="AE7" t="n">
-        <v>1378969.288862275</v>
+        <v>1685228.947892081</v>
       </c>
       <c r="AF7" t="n">
         <v>3.625495668133301e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.17361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1247362.395328811</v>
+        <v>1524393.062338944</v>
       </c>
     </row>
     <row r="8">
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1007.990298482015</v>
+        <v>1231.824375493607</v>
       </c>
       <c r="AB8" t="n">
-        <v>1379.17679577657</v>
+        <v>1685.436454806376</v>
       </c>
       <c r="AC8" t="n">
-        <v>1247.550098074443</v>
+        <v>1524.580765084576</v>
       </c>
       <c r="AD8" t="n">
-        <v>1007990.298482015</v>
+        <v>1231824.375493607</v>
       </c>
       <c r="AE8" t="n">
-        <v>1379176.79577657</v>
+        <v>1685436.454806376</v>
       </c>
       <c r="AF8" t="n">
         <v>3.63058944497648e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.10416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1247550.098074443</v>
+        <v>1524580.765084576</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.9473342918819</v>
+        <v>1137.735929797511</v>
       </c>
       <c r="AB2" t="n">
-        <v>1186.195589795203</v>
+        <v>1556.700492515708</v>
       </c>
       <c r="AC2" t="n">
-        <v>1072.986747541115</v>
+        <v>1408.131182352871</v>
       </c>
       <c r="AD2" t="n">
-        <v>866947.3342918819</v>
+        <v>1137735.929797511</v>
       </c>
       <c r="AE2" t="n">
-        <v>1186195.589795203</v>
+        <v>1556700.492515708</v>
       </c>
       <c r="AF2" t="n">
         <v>6.702195865161884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.28240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1072986.747541115</v>
+        <v>1408131.182352871</v>
       </c>
     </row>
   </sheetData>
@@ -21332,28 +21332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1174.468247958659</v>
+        <v>1448.250045076019</v>
       </c>
       <c r="AB2" t="n">
-        <v>1606.959270739298</v>
+        <v>1981.559603955707</v>
       </c>
       <c r="AC2" t="n">
-        <v>1453.59333332144</v>
+        <v>1792.442336490545</v>
       </c>
       <c r="AD2" t="n">
-        <v>1174468.247958659</v>
+        <v>1448250.045076019</v>
       </c>
       <c r="AE2" t="n">
-        <v>1606959.270739298</v>
+        <v>1981559.603955707</v>
       </c>
       <c r="AF2" t="n">
         <v>3.895101997608375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.60185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1453593.33332144</v>
+        <v>1792442.336490545</v>
       </c>
     </row>
     <row r="3">
@@ -21438,28 +21438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.3946234511812</v>
+        <v>1127.369823707702</v>
       </c>
       <c r="AB3" t="n">
-        <v>1219.645449361235</v>
+        <v>1542.517128843307</v>
       </c>
       <c r="AC3" t="n">
-        <v>1103.244199457337</v>
+        <v>1395.301459002888</v>
       </c>
       <c r="AD3" t="n">
-        <v>891394.6234511812</v>
+        <v>1127369.823707702</v>
       </c>
       <c r="AE3" t="n">
-        <v>1219645.449361235</v>
+        <v>1542517.128843307</v>
       </c>
       <c r="AF3" t="n">
         <v>4.616146871096656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.9212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1103244.199457337</v>
+        <v>1395301.459002888</v>
       </c>
     </row>
     <row r="4">
@@ -21544,28 +21544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>878.3358997886924</v>
+        <v>1104.834837795775</v>
       </c>
       <c r="AB4" t="n">
-        <v>1201.777927535989</v>
+        <v>1511.683766945195</v>
       </c>
       <c r="AC4" t="n">
-        <v>1087.081928837869</v>
+        <v>1367.410789889437</v>
       </c>
       <c r="AD4" t="n">
-        <v>878335.8997886924</v>
+        <v>1104834.837795775</v>
       </c>
       <c r="AE4" t="n">
-        <v>1201777.927535989</v>
+        <v>1511683.766945194</v>
       </c>
       <c r="AF4" t="n">
         <v>4.669481360830412e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.38888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1087081.928837869</v>
+        <v>1367410.789889437</v>
       </c>
     </row>
   </sheetData>
@@ -21841,28 +21841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1465.877338199299</v>
+        <v>1761.979239395602</v>
       </c>
       <c r="AB2" t="n">
-        <v>2005.678044068268</v>
+        <v>2410.817728378982</v>
       </c>
       <c r="AC2" t="n">
-        <v>1814.258946529206</v>
+        <v>2180.732667986425</v>
       </c>
       <c r="AD2" t="n">
-        <v>1465877.338199299</v>
+        <v>1761979.239395602</v>
       </c>
       <c r="AE2" t="n">
-        <v>2005678.044068268</v>
+        <v>2410817.728378982</v>
       </c>
       <c r="AF2" t="n">
         <v>3.143408205804393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.35416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1814258.946529206</v>
+        <v>2180732.667986425</v>
       </c>
     </row>
     <row r="3">
@@ -21947,28 +21947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1060.709593736614</v>
+        <v>1299.481807238183</v>
       </c>
       <c r="AB3" t="n">
-        <v>1451.309661355071</v>
+        <v>1778.008337754534</v>
       </c>
       <c r="AC3" t="n">
-        <v>1312.798704201245</v>
+        <v>1608.317717449615</v>
       </c>
       <c r="AD3" t="n">
-        <v>1060709.593736614</v>
+        <v>1299481.807238183</v>
       </c>
       <c r="AE3" t="n">
-        <v>1451309.661355071</v>
+        <v>1778008.337754534</v>
       </c>
       <c r="AF3" t="n">
         <v>3.903765057112993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.39814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1312798.704201245</v>
+        <v>1608317.717449615</v>
       </c>
     </row>
     <row r="4">
@@ -22053,28 +22053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>938.651030575101</v>
+        <v>1158.347513597207</v>
       </c>
       <c r="AB4" t="n">
-        <v>1284.303750393726</v>
+        <v>1584.902170789352</v>
       </c>
       <c r="AC4" t="n">
-        <v>1161.731602987782</v>
+        <v>1433.641332033383</v>
       </c>
       <c r="AD4" t="n">
-        <v>938651.030575101</v>
+        <v>1158347.513597207</v>
       </c>
       <c r="AE4" t="n">
-        <v>1284303.750393726</v>
+        <v>1584902.170789352</v>
       </c>
       <c r="AF4" t="n">
         <v>4.1867117881062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.06481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>1161731.602987783</v>
+        <v>1433641.332033383</v>
       </c>
     </row>
     <row r="5">
@@ -22159,28 +22159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>916.2959321617033</v>
+        <v>1145.546352103074</v>
       </c>
       <c r="AB5" t="n">
-        <v>1253.716518507179</v>
+        <v>1567.387056885693</v>
       </c>
       <c r="AC5" t="n">
-        <v>1134.063573583038</v>
+        <v>1417.797836018073</v>
       </c>
       <c r="AD5" t="n">
-        <v>916295.9321617032</v>
+        <v>1145546.352103074</v>
       </c>
       <c r="AE5" t="n">
-        <v>1253716.518507179</v>
+        <v>1567387.056885693</v>
       </c>
       <c r="AF5" t="n">
         <v>4.222205105951637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.68287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1134063.573583038</v>
+        <v>1417797.836018072</v>
       </c>
     </row>
   </sheetData>
